--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -2138,6 +2138,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16443960" y="1752600"/>
+          <a:ext cx="2301240" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2442,6 +2505,132 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>510540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260081" y="1082040"/>
+          <a:ext cx="693420" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8595360" y="1699260"/>
+          <a:ext cx="2621280" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3397,7 +3586,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3752,7 +3941,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4200,11 +4389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4673,7 +4862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -5622,21 +5811,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -5786,24 +5960,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5819,4 +5991,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -2054,6 +2054,69 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541021</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>441960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="右矢印 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5570221" y="1828800"/>
+          <a:ext cx="678180" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -3582,11 +3645,11 @@
   </sheetPr>
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4389,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -5811,6 +5874,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -5960,22 +6038,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5991,21 +6071,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -2710,6 +2710,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10888980" y="2324100"/>
+          <a:ext cx="4899660" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3649,7 +3712,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4453,10 +4516,10 @@
   <dimension ref="B2:AN14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5874,21 +5937,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -6038,24 +6086,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6071,4 +6117,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -2773,6 +2773,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>579120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右矢印 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15468600" y="2895600"/>
+          <a:ext cx="2910840" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3708,11 +3771,11 @@
   </sheetPr>
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4515,11 +4578,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5937,6 +6000,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -6086,22 +6164,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6117,21 +6197,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4130,7 +4130,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12:I12"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4380,8 +4380,12 @@
       <c r="G7" s="26">
         <v>44144</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4">
+        <v>44130</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44137</v>
+      </c>
       <c r="J7" s="28"/>
       <c r="K7" s="41"/>
       <c r="L7" s="42"/>
@@ -4582,7 +4586,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4787,8 +4791,12 @@
       <c r="G6" s="26">
         <v>44144</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="26">
+        <v>44130</v>
+      </c>
+      <c r="I6" s="26">
+        <v>44137</v>
+      </c>
       <c r="J6" s="27"/>
       <c r="K6" s="34"/>
       <c r="L6" s="8"/>
@@ -4835,8 +4843,12 @@
       <c r="G7" s="26">
         <v>44144</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="H7" s="4">
+        <v>44137</v>
+      </c>
+      <c r="I7" s="4">
+        <v>44144</v>
+      </c>
       <c r="J7" s="28"/>
       <c r="K7" s="35"/>
       <c r="L7" s="3"/>
@@ -4885,8 +4897,12 @@
       <c r="G8" s="26">
         <v>44158</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="26">
+        <v>44144</v>
+      </c>
+      <c r="I8" s="26">
+        <v>44158</v>
+      </c>
       <c r="J8" s="27"/>
       <c r="K8" s="34"/>
       <c r="L8" s="8"/>
@@ -4933,8 +4949,12 @@
       <c r="G9" s="26">
         <v>44158</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="26">
+        <v>44158</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44172</v>
+      </c>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
       <c r="L9" s="3"/>
@@ -5055,7 +5075,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6000,21 +6020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -6164,24 +6169,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6197,4 +6200,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
     <sheet name="詳細スケジュール(10月)" sheetId="4" r:id="rId2"/>
     <sheet name="詳細スケジュール(11月)" sheetId="15" r:id="rId3"/>
     <sheet name="詳細スケジュール(12月)" sheetId="16" r:id="rId4"/>
-    <sheet name="詳細スケジュール(12月) (2)" sheetId="17" r:id="rId5"/>
+    <sheet name="詳細スケジュール(12月) (2)" sheetId="18" r:id="rId5"/>
+    <sheet name="詳細スケジュール(12月) (3)" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>全体スケジュール</t>
     <rPh sb="0" eb="2">
@@ -2836,10 +2837,204 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15460980" y="3459480"/>
+          <a:ext cx="2910840" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="1135380"/>
+          <a:ext cx="2301240" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>556260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260080" y="1714500"/>
+          <a:ext cx="4602480" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3156,10 +3351,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12527280" y="1181100"/>
+          <a:ext cx="4602480" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4582,11 +4840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="AC6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5003,8 +5261,12 @@
       <c r="G10" s="26">
         <v>44165</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="H10" s="26">
+        <v>44158</v>
+      </c>
+      <c r="I10" s="26">
+        <v>44179</v>
+      </c>
       <c r="J10" s="29"/>
       <c r="K10" s="35"/>
       <c r="L10" s="3"/>
@@ -5075,7 +5337,477 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="41" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AE3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="49"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+    </row>
+    <row r="5" spans="2:41" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
+      <c r="M5" s="24">
+        <v>3</v>
+      </c>
+      <c r="N5" s="24">
+        <v>4</v>
+      </c>
+      <c r="O5" s="24">
+        <v>5</v>
+      </c>
+      <c r="P5" s="24">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>7</v>
+      </c>
+      <c r="R5" s="24">
+        <v>8</v>
+      </c>
+      <c r="S5" s="24">
+        <v>9</v>
+      </c>
+      <c r="T5" s="24">
+        <v>10</v>
+      </c>
+      <c r="U5" s="24">
+        <v>11</v>
+      </c>
+      <c r="V5" s="24">
+        <v>12</v>
+      </c>
+      <c r="W5" s="24">
+        <v>13</v>
+      </c>
+      <c r="X5" s="24">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="24">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>16</v>
+      </c>
+      <c r="AA5" s="24">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="24">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>20</v>
+      </c>
+      <c r="AE5" s="24">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="24">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="24">
+        <v>23</v>
+      </c>
+      <c r="AH5" s="24">
+        <v>24</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>25</v>
+      </c>
+      <c r="AJ5" s="24">
+        <v>26</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>27</v>
+      </c>
+      <c r="AL5" s="24">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="24">
+        <v>29</v>
+      </c>
+      <c r="AN5" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO5" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41" s="5" customFormat="1" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="26">
+        <v>44144</v>
+      </c>
+      <c r="G6" s="26">
+        <v>44158</v>
+      </c>
+      <c r="H6" s="26">
+        <v>44158</v>
+      </c>
+      <c r="I6" s="4">
+        <v>44172</v>
+      </c>
+      <c r="J6" s="27"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="32"/>
+    </row>
+    <row r="7" spans="2:41" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="26">
+        <v>44158</v>
+      </c>
+      <c r="G7" s="26">
+        <v>44165</v>
+      </c>
+      <c r="H7" s="26">
+        <v>44158</v>
+      </c>
+      <c r="I7" s="26">
+        <v>44179</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="33"/>
+    </row>
+    <row r="8" spans="2:41" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="32"/>
+    </row>
+    <row r="9" spans="2:41" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="33"/>
+    </row>
+    <row r="10" spans="2:41" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="31"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="31"/>
+      <c r="AN10" s="31"/>
+      <c r="AO10" s="33"/>
+    </row>
+    <row r="11" spans="2:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="2:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:AO4"/>
+    <mergeCell ref="C12:I12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AO14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5553,12 +6285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO14"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
@@ -6020,6 +6752,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004B19D3C4BB4583498A1A8CEA58E3230D" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ee6bf21dc4a88d0c1259e21725870a5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="995a7e31-7f45-40be-b459-ff0401ae72fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e607804a6a8c7c11bb9c75109a91a76" ns2:_="">
     <xsd:import namespace="995a7e31-7f45-40be-b459-ff0401ae72fd"/>
@@ -6169,22 +6916,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4F7796-B81C-49A3-81DD-298A3E140552}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6200,21 +6949,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -2134,6 +2134,132 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>449580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7993380" y="3040380"/>
+          <a:ext cx="2156460" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="右矢印 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7170420" y="2453640"/>
+          <a:ext cx="1950720" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3359,8 +3485,8 @@
       <xdr:rowOff>335280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
@@ -3378,7 +3504,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12527280" y="1181100"/>
-          <a:ext cx="4602480" cy="274320"/>
+          <a:ext cx="5996940" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4033,7 +4159,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5807,7 +5933,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6016,8 +6142,12 @@
       <c r="G6" s="26">
         <v>44172</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="26">
+        <v>44544</v>
+      </c>
+      <c r="I6" s="26">
+        <v>44214</v>
+      </c>
       <c r="J6" s="27"/>
       <c r="K6" s="7"/>
       <c r="L6" s="8"/>
@@ -6067,7 +6197,9 @@
       <c r="G7" s="26">
         <v>44179</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>44220</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="28"/>
       <c r="K7" s="12"/>
@@ -6752,18 +6884,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6917,18 +7049,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -4155,11 +4155,11 @@
   </sheetPr>
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5929,11 +5929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6250,8 +6250,12 @@
       <c r="G8" s="26">
         <v>44179</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="26">
+        <v>44220</v>
+      </c>
+      <c r="I8" s="26">
+        <v>44221</v>
+      </c>
       <c r="J8" s="27"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
@@ -6884,18 +6888,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7049,18 +7053,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -2225,6 +2225,69 @@
         <a:xfrm>
           <a:off x="7170420" y="2453640"/>
           <a:ext cx="1950720" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>502920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右矢印 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10812780" y="3710940"/>
+          <a:ext cx="236220" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4155,11 +4218,11 @@
   </sheetPr>
   <dimension ref="B2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5929,11 +5992,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6200,7 +6263,9 @@
       <c r="H7" s="4">
         <v>44220</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4">
+        <v>44221</v>
+      </c>
       <c r="J7" s="28"/>
       <c r="K7" s="12"/>
       <c r="L7" s="3"/>
@@ -6305,7 +6370,9 @@
       <c r="G9" s="26">
         <v>44186</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="26">
+        <v>44221</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="28"/>
       <c r="K9" s="12"/>

--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -5996,7 +5996,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6373,7 +6373,9 @@
       <c r="H9" s="26">
         <v>44221</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>44228</v>
+      </c>
       <c r="J9" s="28"/>
       <c r="K9" s="12"/>
       <c r="L9" s="3"/>
@@ -6423,7 +6425,9 @@
       <c r="G10" s="26">
         <v>44186</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="26">
+        <v>44228</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="29"/>
       <c r="K10" s="12"/>
@@ -6955,18 +6959,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7120,18 +7124,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/【藤原和矢】進捗管理表.xlsx
+++ b/【藤原和矢】進捗管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8376" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId1"/>
@@ -5996,7 +5996,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6428,7 +6428,9 @@
       <c r="H10" s="26">
         <v>44228</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="26">
+        <v>44241</v>
+      </c>
       <c r="J10" s="29"/>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
@@ -6500,7 +6502,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6703,8 +6705,12 @@
       <c r="E6" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="26">
+        <v>44242</v>
+      </c>
+      <c r="G6" s="26">
+        <v>44242</v>
+      </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
@@ -6750,8 +6756,12 @@
       <c r="E7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="26">
+        <v>44242</v>
+      </c>
+      <c r="G7" s="26">
+        <v>44242</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="28"/>
@@ -6959,18 +6969,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7124,18 +7134,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC5A0FA0-22B1-4B7B-ADC3-071114E4A1D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E7C58E-5CD7-4915-AC66-0B71907F11F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
